--- a/docs/odh/shr-core-Metadata-model.xlsx
+++ b/docs/odh/shr-core-Metadata-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
   <si>
     <t>Path</t>
   </si>
@@ -168,6 +168,16 @@
   </si>
   <si>
     <t>The name of the FHIR profile this resource claims to conform to.</t>
+  </si>
+  <si>
+    <t>shr-core-Metadata-model.sourceSystem</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
   </si>
   <si>
     <t>shr-core-Metadata-model.securityLabel</t>
@@ -340,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -349,7 +359,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -359,7 +369,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="206.94140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -379,7 +389,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="37.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -892,7 +902,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -904,10 +914,10 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>52</v>
@@ -946,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>36</v>
@@ -967,7 +977,7 @@
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
@@ -978,7 +988,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1001,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>55</v>
@@ -1058,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1073,8 +1083,105 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI7">
+  <autoFilter ref="A1:AI8">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1084,7 +1191,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
